--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H2">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I2">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J2">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N2">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q2">
-        <v>0.01391370894611111</v>
+        <v>0.02283658078</v>
       </c>
       <c r="R2">
-        <v>0.125223380515</v>
+        <v>0.20552922702</v>
       </c>
       <c r="S2">
-        <v>7.324961112907994E-06</v>
+        <v>8.38283128958809E-06</v>
       </c>
       <c r="T2">
-        <v>7.324961112907993E-06</v>
+        <v>8.38283128958809E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H3">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I3">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J3">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.070426</v>
       </c>
       <c r="O3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q3">
-        <v>0.005029832745111112</v>
+        <v>0.02361172502</v>
       </c>
       <c r="R3">
-        <v>0.04526849470600001</v>
+        <v>0.21250552518</v>
       </c>
       <c r="S3">
-        <v>2.647987636155627E-06</v>
+        <v>8.667370531763378E-06</v>
       </c>
       <c r="T3">
-        <v>2.647987636155626E-06</v>
+        <v>8.667370531763378E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H4">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I4">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J4">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N4">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q4">
-        <v>1.536718748354556</v>
+        <v>10.30452311473</v>
       </c>
       <c r="R4">
-        <v>13.830468735191</v>
+        <v>92.74070803257001</v>
       </c>
       <c r="S4">
-        <v>0.0008090154190209604</v>
+        <v>0.003782574967006176</v>
       </c>
       <c r="T4">
-        <v>0.0008090154190209602</v>
+        <v>0.003782574967006176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I5">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J5">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N5">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q5">
-        <v>16.49231165132611</v>
+        <v>5.766277318576224</v>
       </c>
       <c r="R5">
-        <v>148.430804861935</v>
+        <v>51.89649586718601</v>
       </c>
       <c r="S5">
-        <v>0.008682483008363374</v>
+        <v>0.002116679830324532</v>
       </c>
       <c r="T5">
-        <v>0.008682483008363372</v>
+        <v>0.002116679830324532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I6">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J6">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.070426</v>
       </c>
       <c r="O6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q6">
         <v>5.962002619697112</v>
@@ -821,10 +821,10 @@
         <v>53.65802357727401</v>
       </c>
       <c r="S6">
-        <v>0.003138734431881523</v>
+        <v>0.002188526495734144</v>
       </c>
       <c r="T6">
-        <v>0.003138734431881523</v>
+        <v>0.002188526495734144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I7">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J7">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N7">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q7">
-        <v>1821.516075724927</v>
+        <v>2601.910438678728</v>
       </c>
       <c r="R7">
-        <v>16393.64468152434</v>
+        <v>23417.19394810855</v>
       </c>
       <c r="S7">
-        <v>0.9589487945233399</v>
+        <v>0.955106915881385</v>
       </c>
       <c r="T7">
-        <v>0.9589487945233398</v>
+        <v>0.9551069158813851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H8">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I8">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J8">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N8">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q8">
-        <v>0.4817263019472223</v>
+        <v>0.2119859422855556</v>
       </c>
       <c r="R8">
-        <v>4.335536717525</v>
+        <v>1.90787348057</v>
       </c>
       <c r="S8">
-        <v>0.0002536078943792072</v>
+        <v>7.781560676984018E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002536078943792072</v>
+        <v>7.781560676984018E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H9">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I9">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J9">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.070426</v>
       </c>
       <c r="O9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q9">
-        <v>0.1741449916122222</v>
+        <v>0.2191814013477778</v>
       </c>
       <c r="R9">
-        <v>1.56730492451</v>
+        <v>1.97263261213</v>
       </c>
       <c r="S9">
-        <v>9.167974524317965E-05</v>
+        <v>8.045690933395139E-05</v>
       </c>
       <c r="T9">
-        <v>9.167974524317965E-05</v>
+        <v>8.045690933395139E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H10">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N10">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q10">
-        <v>53.20492491577612</v>
+        <v>95.65416396277723</v>
       </c>
       <c r="R10">
-        <v>478.844324241985</v>
+        <v>860.887475664995</v>
       </c>
       <c r="S10">
-        <v>0.02801007319706638</v>
+        <v>0.03511264345443567</v>
       </c>
       <c r="T10">
-        <v>0.02801007319706638</v>
+        <v>0.03511264345443567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H11">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I11">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J11">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N11">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q11">
-        <v>0.00094524238</v>
+        <v>0.009119526140444445</v>
       </c>
       <c r="R11">
-        <v>0.008507181419999999</v>
+        <v>0.08207573526400001</v>
       </c>
       <c r="S11">
-        <v>4.97628899856197E-07</v>
+        <v>3.34758735612846E-06</v>
       </c>
       <c r="T11">
-        <v>4.97628899856197E-07</v>
+        <v>3.34758735612846E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H12">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I12">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J12">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.070426</v>
       </c>
       <c r="O12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q12">
-        <v>0.000341706952</v>
+        <v>0.009429071086222223</v>
       </c>
       <c r="R12">
-        <v>0.003075362568</v>
+        <v>0.084861639776</v>
       </c>
       <c r="S12">
-        <v>1.798938115713499E-07</v>
+        <v>3.461214833113646E-06</v>
       </c>
       <c r="T12">
-        <v>1.798938115713499E-07</v>
+        <v>3.461214833113646E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H13">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I13">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J13">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N13">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q13">
-        <v>0.104398596572</v>
+        <v>4.114992906113778</v>
       </c>
       <c r="R13">
-        <v>0.939587369148</v>
+        <v>37.03493615502401</v>
       </c>
       <c r="S13">
-        <v>5.496130924499524E-05</v>
+        <v>0.0015105278510001</v>
       </c>
       <c r="T13">
-        <v>5.496130924499524E-05</v>
+        <v>0.0015105278510001</v>
       </c>
     </row>
   </sheetData>
